--- a/Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A94386-949D-4E75-B1DD-C5711B6BEB53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRH" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,155 +689,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14020000</v>
+        <v>16657100</v>
       </c>
       <c r="E8" s="3">
-        <v>29603500</v>
+        <v>13401000</v>
       </c>
       <c r="F8" s="3">
-        <v>13909600</v>
+        <v>28296600</v>
       </c>
       <c r="G8" s="3">
-        <v>29097600</v>
+        <v>13295600</v>
       </c>
       <c r="H8" s="3">
-        <v>14899200</v>
+        <v>27813000</v>
       </c>
       <c r="I8" s="3">
-        <v>16744400</v>
+        <v>14241400</v>
       </c>
       <c r="J8" s="3">
+        <v>16005200</v>
+      </c>
+      <c r="K8" s="3">
         <v>10998600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9667500</v>
+        <v>11125700</v>
       </c>
       <c r="E9" s="3">
-        <v>19840900</v>
+        <v>9240700</v>
       </c>
       <c r="F9" s="3">
-        <v>9496100</v>
+        <v>18965000</v>
       </c>
       <c r="G9" s="3">
-        <v>19445300</v>
+        <v>9076900</v>
       </c>
       <c r="H9" s="3">
-        <v>10232100</v>
+        <v>18586900</v>
       </c>
       <c r="I9" s="3">
-        <v>11397700</v>
+        <v>9780400</v>
       </c>
       <c r="J9" s="3">
+        <v>10894500</v>
+      </c>
+      <c r="K9" s="3">
         <v>7845700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4352500</v>
+        <v>5531400</v>
       </c>
       <c r="E10" s="3">
-        <v>9762600</v>
+        <v>4160300</v>
       </c>
       <c r="F10" s="3">
-        <v>4413500</v>
+        <v>9331600</v>
       </c>
       <c r="G10" s="3">
-        <v>9652200</v>
+        <v>4218700</v>
       </c>
       <c r="H10" s="3">
-        <v>4667100</v>
+        <v>9226100</v>
       </c>
       <c r="I10" s="3">
-        <v>5346700</v>
+        <v>4461000</v>
       </c>
       <c r="J10" s="3">
+        <v>5110700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3152900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +862,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +892,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,22 +924,25 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14100</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>5600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -901,8 +956,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +988,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1001,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13325100</v>
+        <v>14878700</v>
       </c>
       <c r="E17" s="3">
-        <v>27144400</v>
+        <v>12736800</v>
       </c>
       <c r="F17" s="3">
-        <v>13197100</v>
+        <v>25946000</v>
       </c>
       <c r="G17" s="3">
-        <v>26857900</v>
+        <v>12614500</v>
       </c>
       <c r="H17" s="3">
-        <v>14209000</v>
+        <v>25672300</v>
       </c>
       <c r="I17" s="3">
-        <v>15467300</v>
+        <v>13581700</v>
       </c>
       <c r="J17" s="3">
+        <v>14784500</v>
+      </c>
+      <c r="K17" s="3">
         <v>10776700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>694900</v>
+        <v>1778400</v>
       </c>
       <c r="E18" s="3">
-        <v>2459100</v>
+        <v>664200</v>
       </c>
       <c r="F18" s="3">
-        <v>712500</v>
+        <v>2350600</v>
       </c>
       <c r="G18" s="3">
-        <v>2239600</v>
+        <v>681000</v>
       </c>
       <c r="H18" s="3">
-        <v>690200</v>
+        <v>2140800</v>
       </c>
       <c r="I18" s="3">
-        <v>1277100</v>
+        <v>659700</v>
       </c>
       <c r="J18" s="3">
+        <v>1220700</v>
+      </c>
+      <c r="K18" s="3">
         <v>221900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,66 +1079,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-111500</v>
+        <v>-246800</v>
       </c>
       <c r="E20" s="3">
-        <v>-267600</v>
+        <v>-106600</v>
       </c>
       <c r="F20" s="3">
-        <v>-154900</v>
+        <v>-255800</v>
       </c>
       <c r="G20" s="3">
-        <v>-338100</v>
+        <v>-148100</v>
       </c>
       <c r="H20" s="3">
-        <v>-212500</v>
+        <v>-323100</v>
       </c>
       <c r="I20" s="3">
-        <v>-138500</v>
+        <v>-203100</v>
       </c>
       <c r="J20" s="3">
+        <v>-132400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-147900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1191400</v>
+        <v>2220400</v>
       </c>
       <c r="E21" s="3">
-        <v>3449800</v>
+        <v>1138800</v>
       </c>
       <c r="F21" s="3">
-        <v>1177300</v>
+        <v>3297500</v>
       </c>
       <c r="G21" s="3">
-        <v>3169300</v>
+        <v>1125400</v>
       </c>
       <c r="H21" s="3">
-        <v>1102200</v>
+        <v>3029400</v>
       </c>
       <c r="I21" s="3">
-        <v>1763100</v>
+        <v>1053500</v>
       </c>
       <c r="J21" s="3">
+        <v>1685200</v>
+      </c>
+      <c r="K21" s="3">
         <v>503600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,66 +1173,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>583400</v>
+        <v>1531500</v>
       </c>
       <c r="E23" s="3">
-        <v>2191500</v>
+        <v>557600</v>
       </c>
       <c r="F23" s="3">
-        <v>557600</v>
+        <v>2094800</v>
       </c>
       <c r="G23" s="3">
-        <v>1901600</v>
+        <v>532900</v>
       </c>
       <c r="H23" s="3">
-        <v>477700</v>
+        <v>1817600</v>
       </c>
       <c r="I23" s="3">
-        <v>1138600</v>
+        <v>456600</v>
       </c>
       <c r="J23" s="3">
+        <v>1088300</v>
+      </c>
+      <c r="K23" s="3">
         <v>74000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>139700</v>
+        <v>344500</v>
       </c>
       <c r="E24" s="3">
-        <v>581000</v>
+        <v>133500</v>
       </c>
       <c r="F24" s="3">
-        <v>151400</v>
+        <v>555400</v>
       </c>
       <c r="G24" s="3">
-        <v>505900</v>
+        <v>144700</v>
       </c>
       <c r="H24" s="3">
-        <v>133800</v>
+        <v>483600</v>
       </c>
       <c r="I24" s="3">
-        <v>338100</v>
+        <v>127900</v>
       </c>
       <c r="J24" s="3">
+        <v>323100</v>
+      </c>
+      <c r="K24" s="3">
         <v>18800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1269,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>443700</v>
+        <v>1187100</v>
       </c>
       <c r="E26" s="3">
-        <v>1610500</v>
+        <v>424100</v>
       </c>
       <c r="F26" s="3">
-        <v>406100</v>
+        <v>1539400</v>
       </c>
       <c r="G26" s="3">
-        <v>1395700</v>
+        <v>388200</v>
       </c>
       <c r="H26" s="3">
-        <v>343900</v>
+        <v>1334000</v>
       </c>
       <c r="I26" s="3">
-        <v>800500</v>
+        <v>328700</v>
       </c>
       <c r="J26" s="3">
+        <v>765200</v>
+      </c>
+      <c r="K26" s="3">
         <v>55200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>443700</v>
+        <v>1182600</v>
       </c>
       <c r="E27" s="3">
-        <v>1582300</v>
+        <v>424100</v>
       </c>
       <c r="F27" s="3">
-        <v>395600</v>
+        <v>1512400</v>
       </c>
       <c r="G27" s="3">
-        <v>1364000</v>
+        <v>378100</v>
       </c>
       <c r="H27" s="3">
-        <v>327500</v>
+        <v>1303800</v>
       </c>
       <c r="I27" s="3">
-        <v>795800</v>
+        <v>313000</v>
       </c>
       <c r="J27" s="3">
+        <v>760700</v>
+      </c>
+      <c r="K27" s="3">
         <v>54000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,25 +1365,28 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1271200</v>
+        <v>2200</v>
       </c>
       <c r="E29" s="3">
-        <v>642100</v>
+        <v>1215100</v>
       </c>
       <c r="F29" s="3">
-        <v>30500</v>
+        <v>613700</v>
       </c>
       <c r="G29" s="3">
-        <v>95100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>29200</v>
+      </c>
+      <c r="H29" s="3">
+        <v>90900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1301,8 +1397,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1429,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1461,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>111500</v>
+        <v>246800</v>
       </c>
       <c r="E32" s="3">
-        <v>267600</v>
+        <v>106600</v>
       </c>
       <c r="F32" s="3">
-        <v>154900</v>
+        <v>255800</v>
       </c>
       <c r="G32" s="3">
-        <v>338100</v>
+        <v>148100</v>
       </c>
       <c r="H32" s="3">
-        <v>212500</v>
+        <v>323100</v>
       </c>
       <c r="I32" s="3">
-        <v>138500</v>
+        <v>203100</v>
       </c>
       <c r="J32" s="3">
+        <v>132400</v>
+      </c>
+      <c r="K32" s="3">
         <v>147900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1714900</v>
+        <v>1184800</v>
       </c>
       <c r="E33" s="3">
-        <v>2224400</v>
+        <v>1639200</v>
       </c>
       <c r="F33" s="3">
-        <v>426100</v>
+        <v>2126200</v>
       </c>
       <c r="G33" s="3">
-        <v>1459000</v>
+        <v>407300</v>
       </c>
       <c r="H33" s="3">
-        <v>327500</v>
+        <v>1394600</v>
       </c>
       <c r="I33" s="3">
-        <v>795800</v>
+        <v>313000</v>
       </c>
       <c r="J33" s="3">
+        <v>760700</v>
+      </c>
+      <c r="K33" s="3">
         <v>54000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1557,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1714900</v>
+        <v>1184800</v>
       </c>
       <c r="E35" s="3">
-        <v>2224400</v>
+        <v>1639200</v>
       </c>
       <c r="F35" s="3">
-        <v>426100</v>
+        <v>2126200</v>
       </c>
       <c r="G35" s="3">
-        <v>1459000</v>
+        <v>407300</v>
       </c>
       <c r="H35" s="3">
-        <v>327500</v>
+        <v>1394600</v>
       </c>
       <c r="I35" s="3">
-        <v>795800</v>
+        <v>313000</v>
       </c>
       <c r="J35" s="3">
+        <v>760700</v>
+      </c>
+      <c r="K35" s="3">
         <v>54000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1642,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1656,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2169200</v>
+        <v>2632200</v>
       </c>
       <c r="E41" s="3">
-        <v>2482600</v>
+        <v>2073400</v>
       </c>
       <c r="F41" s="3">
-        <v>2265500</v>
+        <v>2373000</v>
       </c>
       <c r="G41" s="3">
-        <v>2874700</v>
+        <v>2165400</v>
       </c>
       <c r="H41" s="3">
-        <v>1636300</v>
+        <v>2747800</v>
       </c>
       <c r="I41" s="3">
-        <v>2955700</v>
+        <v>1564100</v>
       </c>
       <c r="J41" s="3">
+        <v>2825200</v>
+      </c>
+      <c r="K41" s="3">
         <v>6149600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,211 +1718,235 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5975900</v>
+        <v>4587800</v>
       </c>
       <c r="E43" s="3">
-        <v>4454600</v>
+        <v>5712100</v>
       </c>
       <c r="F43" s="3">
-        <v>5718800</v>
+        <v>4258000</v>
       </c>
       <c r="G43" s="3">
-        <v>4675300</v>
+        <v>5466300</v>
       </c>
       <c r="H43" s="3">
-        <v>5804500</v>
+        <v>4468900</v>
       </c>
       <c r="I43" s="3">
-        <v>4674100</v>
+        <v>5548200</v>
       </c>
       <c r="J43" s="3">
+        <v>4467800</v>
+      </c>
+      <c r="K43" s="3">
         <v>4211600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3698700</v>
+        <v>3434400</v>
       </c>
       <c r="E44" s="3">
-        <v>3186900</v>
+        <v>3535400</v>
       </c>
       <c r="F44" s="3">
-        <v>3656400</v>
+        <v>3046200</v>
       </c>
       <c r="G44" s="3">
-        <v>3449800</v>
+        <v>3495000</v>
       </c>
       <c r="H44" s="3">
-        <v>3517900</v>
+        <v>3297500</v>
       </c>
       <c r="I44" s="3">
-        <v>3372400</v>
+        <v>3362600</v>
       </c>
       <c r="J44" s="3">
+        <v>3223500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2978000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36400</v>
+        <v>16800</v>
       </c>
       <c r="E45" s="3">
-        <v>1345200</v>
+        <v>34800</v>
       </c>
       <c r="F45" s="3">
-        <v>70400</v>
+        <v>1285800</v>
       </c>
       <c r="G45" s="3">
-        <v>27000</v>
+        <v>67300</v>
       </c>
       <c r="H45" s="3">
-        <v>30500</v>
+        <v>25800</v>
       </c>
       <c r="I45" s="3">
-        <v>28200</v>
+        <v>29200</v>
       </c>
       <c r="J45" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K45" s="3">
         <v>25800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11880100</v>
+        <v>10671200</v>
       </c>
       <c r="E46" s="3">
-        <v>11469300</v>
+        <v>11355700</v>
       </c>
       <c r="F46" s="3">
-        <v>11711100</v>
+        <v>10963000</v>
       </c>
       <c r="G46" s="3">
-        <v>11026800</v>
+        <v>11194100</v>
       </c>
       <c r="H46" s="3">
-        <v>10989200</v>
+        <v>10540000</v>
       </c>
       <c r="I46" s="3">
-        <v>11030300</v>
+        <v>10504100</v>
       </c>
       <c r="J46" s="3">
+        <v>10543300</v>
+      </c>
+      <c r="K46" s="3">
         <v>13365000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1524800</v>
+        <v>1533800</v>
       </c>
       <c r="E47" s="3">
-        <v>1677400</v>
+        <v>1457500</v>
       </c>
       <c r="F47" s="3">
-        <v>1739600</v>
+        <v>1603300</v>
       </c>
       <c r="G47" s="3">
-        <v>1804100</v>
+        <v>1662800</v>
       </c>
       <c r="H47" s="3">
-        <v>1766600</v>
+        <v>1724500</v>
       </c>
       <c r="I47" s="3">
-        <v>1753700</v>
+        <v>1688600</v>
       </c>
       <c r="J47" s="3">
+        <v>1676300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1814700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18319700</v>
+        <v>17683700</v>
       </c>
       <c r="E48" s="3">
-        <v>15369900</v>
+        <v>17510900</v>
       </c>
       <c r="F48" s="3">
-        <v>14565800</v>
+        <v>14691300</v>
       </c>
       <c r="G48" s="3">
-        <v>14895600</v>
+        <v>13922800</v>
       </c>
       <c r="H48" s="3">
-        <v>14799400</v>
+        <v>14238100</v>
       </c>
       <c r="I48" s="3">
-        <v>15332300</v>
+        <v>14146000</v>
       </c>
       <c r="J48" s="3">
+        <v>14655400</v>
+      </c>
+      <c r="K48" s="3">
         <v>9181500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10112400</v>
+        <v>9461700</v>
       </c>
       <c r="E49" s="3">
-        <v>8467900</v>
+        <v>9665900</v>
       </c>
       <c r="F49" s="3">
-        <v>8859900</v>
+        <v>8094000</v>
       </c>
       <c r="G49" s="3">
-        <v>9109900</v>
+        <v>8468800</v>
       </c>
       <c r="H49" s="3">
-        <v>9027800</v>
+        <v>8707800</v>
       </c>
       <c r="I49" s="3">
-        <v>9179200</v>
+        <v>8629200</v>
       </c>
       <c r="J49" s="3">
+        <v>8774000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5177700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1974,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2006,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>133800</v>
+        <v>113300</v>
       </c>
       <c r="E52" s="3">
-        <v>146700</v>
+        <v>127900</v>
       </c>
       <c r="F52" s="3">
-        <v>212500</v>
+        <v>140200</v>
       </c>
       <c r="G52" s="3">
-        <v>248800</v>
+        <v>203100</v>
       </c>
       <c r="H52" s="3">
-        <v>379100</v>
+        <v>237900</v>
       </c>
       <c r="I52" s="3">
-        <v>274700</v>
+        <v>362400</v>
       </c>
       <c r="J52" s="3">
+        <v>262500</v>
+      </c>
+      <c r="K52" s="3">
         <v>253500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2070,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41970800</v>
+        <v>39463800</v>
       </c>
       <c r="E54" s="3">
-        <v>37131100</v>
+        <v>40117900</v>
       </c>
       <c r="F54" s="3">
-        <v>37088900</v>
+        <v>35491900</v>
       </c>
       <c r="G54" s="3">
-        <v>37085400</v>
+        <v>35451500</v>
       </c>
       <c r="H54" s="3">
-        <v>36962100</v>
+        <v>35448200</v>
       </c>
       <c r="I54" s="3">
-        <v>37570100</v>
+        <v>35330300</v>
       </c>
       <c r="J54" s="3">
+        <v>35911500</v>
+      </c>
+      <c r="K54" s="3">
         <v>29792500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2118,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2132,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6051000</v>
+        <v>5171300</v>
       </c>
       <c r="E57" s="3">
-        <v>5322100</v>
+        <v>5783900</v>
       </c>
       <c r="F57" s="3">
-        <v>5869100</v>
+        <v>5087100</v>
       </c>
       <c r="G57" s="3">
-        <v>5651900</v>
+        <v>5610000</v>
       </c>
       <c r="H57" s="3">
-        <v>6151900</v>
+        <v>5402400</v>
       </c>
       <c r="I57" s="3">
-        <v>5588500</v>
+        <v>5880300</v>
       </c>
       <c r="J57" s="3">
+        <v>5341800</v>
+      </c>
+      <c r="K57" s="3">
         <v>4145900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1591700</v>
+        <v>693400</v>
       </c>
       <c r="E58" s="3">
-        <v>370900</v>
+        <v>1521400</v>
       </c>
       <c r="F58" s="3">
-        <v>490700</v>
+        <v>354500</v>
       </c>
       <c r="G58" s="3">
-        <v>322800</v>
+        <v>469000</v>
       </c>
       <c r="H58" s="3">
-        <v>753600</v>
+        <v>308500</v>
       </c>
       <c r="I58" s="3">
-        <v>887400</v>
+        <v>720300</v>
       </c>
       <c r="J58" s="3">
+        <v>848200</v>
+      </c>
+      <c r="K58" s="3">
         <v>412000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1155000</v>
+        <v>955900</v>
       </c>
       <c r="E59" s="3">
-        <v>1386300</v>
+        <v>1104000</v>
       </c>
       <c r="F59" s="3">
-        <v>952000</v>
+        <v>1325100</v>
       </c>
       <c r="G59" s="3">
-        <v>948400</v>
+        <v>909900</v>
       </c>
       <c r="H59" s="3">
-        <v>921400</v>
+        <v>906600</v>
       </c>
       <c r="I59" s="3">
-        <v>1000100</v>
+        <v>880800</v>
       </c>
       <c r="J59" s="3">
+        <v>955900</v>
+      </c>
+      <c r="K59" s="3">
         <v>322800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8797700</v>
+        <v>6820600</v>
       </c>
       <c r="E60" s="3">
-        <v>7079200</v>
+        <v>8409300</v>
       </c>
       <c r="F60" s="3">
-        <v>7311700</v>
+        <v>6766700</v>
       </c>
       <c r="G60" s="3">
-        <v>6923100</v>
+        <v>6988900</v>
       </c>
       <c r="H60" s="3">
-        <v>7827000</v>
+        <v>6617500</v>
       </c>
       <c r="I60" s="3">
-        <v>7476000</v>
+        <v>7481400</v>
       </c>
       <c r="J60" s="3">
+        <v>7146000</v>
+      </c>
+      <c r="K60" s="3">
         <v>4880700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10044300</v>
+        <v>9759100</v>
       </c>
       <c r="E61" s="3">
-        <v>8991400</v>
+        <v>9600900</v>
       </c>
       <c r="F61" s="3">
-        <v>9367000</v>
+        <v>8594400</v>
       </c>
       <c r="G61" s="3">
-        <v>8821200</v>
+        <v>8953500</v>
       </c>
       <c r="H61" s="3">
-        <v>9320100</v>
+        <v>8431800</v>
       </c>
       <c r="I61" s="3">
-        <v>9936300</v>
+        <v>8908600</v>
       </c>
       <c r="J61" s="3">
+        <v>9497600</v>
+      </c>
+      <c r="K61" s="3">
         <v>7241200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4381800</v>
+        <v>4310700</v>
       </c>
       <c r="E62" s="3">
-        <v>3480300</v>
+        <v>4188400</v>
       </c>
       <c r="F62" s="3">
-        <v>4075500</v>
+        <v>3326700</v>
       </c>
       <c r="G62" s="3">
-        <v>4387700</v>
+        <v>3895500</v>
       </c>
       <c r="H62" s="3">
-        <v>4425300</v>
+        <v>4194000</v>
       </c>
       <c r="I62" s="3">
-        <v>4259800</v>
+        <v>4229900</v>
       </c>
       <c r="J62" s="3">
+        <v>4071700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2946300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2354,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2386,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2418,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23803700</v>
+        <v>21479400</v>
       </c>
       <c r="E66" s="3">
-        <v>20121500</v>
+        <v>22752800</v>
       </c>
       <c r="F66" s="3">
-        <v>21348100</v>
+        <v>19233200</v>
       </c>
       <c r="G66" s="3">
-        <v>20775300</v>
+        <v>20405600</v>
       </c>
       <c r="H66" s="3">
-        <v>22200300</v>
+        <v>19858100</v>
       </c>
       <c r="I66" s="3">
-        <v>22293000</v>
+        <v>21220200</v>
       </c>
       <c r="J66" s="3">
+        <v>21308800</v>
+      </c>
+      <c r="K66" s="3">
         <v>15094000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2466,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2496,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,37 +2528,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J70" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K70" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2592,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10712200</v>
+        <v>11341100</v>
       </c>
       <c r="E72" s="3">
-        <v>9611200</v>
+        <v>10239300</v>
       </c>
       <c r="F72" s="3">
-        <v>7947900</v>
+        <v>9186900</v>
       </c>
       <c r="G72" s="3">
-        <v>7932600</v>
+        <v>7597000</v>
       </c>
       <c r="H72" s="3">
-        <v>6734100</v>
+        <v>7582400</v>
       </c>
       <c r="I72" s="3">
-        <v>7089800</v>
+        <v>6436900</v>
       </c>
       <c r="J72" s="3">
+        <v>6776800</v>
+      </c>
+      <c r="K72" s="3">
         <v>6156600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2656,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2688,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2720,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18165900</v>
+        <v>17983300</v>
       </c>
       <c r="E76" s="3">
-        <v>17008500</v>
+        <v>17363900</v>
       </c>
       <c r="F76" s="3">
-        <v>15739600</v>
+        <v>16257600</v>
       </c>
       <c r="G76" s="3">
-        <v>16308900</v>
+        <v>15044800</v>
       </c>
       <c r="H76" s="3">
-        <v>14760700</v>
+        <v>15588900</v>
       </c>
       <c r="I76" s="3">
-        <v>15276000</v>
+        <v>14109000</v>
       </c>
       <c r="J76" s="3">
+        <v>14601600</v>
+      </c>
+      <c r="K76" s="3">
         <v>14697300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2784,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1714900</v>
+        <v>1184800</v>
       </c>
       <c r="E81" s="3">
-        <v>2224400</v>
+        <v>1639200</v>
       </c>
       <c r="F81" s="3">
-        <v>426100</v>
+        <v>2126200</v>
       </c>
       <c r="G81" s="3">
-        <v>1459000</v>
+        <v>407300</v>
       </c>
       <c r="H81" s="3">
-        <v>327500</v>
+        <v>1394600</v>
       </c>
       <c r="I81" s="3">
-        <v>795800</v>
+        <v>313000</v>
       </c>
       <c r="J81" s="3">
+        <v>760700</v>
+      </c>
+      <c r="K81" s="3">
         <v>54000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2869,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>608000</v>
+        <v>688900</v>
       </c>
       <c r="E83" s="3">
-        <v>1258300</v>
+        <v>581200</v>
       </c>
       <c r="F83" s="3">
-        <v>619800</v>
+        <v>1202800</v>
       </c>
       <c r="G83" s="3">
-        <v>1267700</v>
+        <v>592400</v>
       </c>
       <c r="H83" s="3">
-        <v>624500</v>
+        <v>1211700</v>
       </c>
       <c r="I83" s="3">
-        <v>624500</v>
+        <v>596900</v>
       </c>
       <c r="J83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="K83" s="3">
         <v>429600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2931,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2963,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2995,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3027,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3059,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-365100</v>
+        <v>2479600</v>
       </c>
       <c r="E89" s="3">
-        <v>2569500</v>
+        <v>-348900</v>
       </c>
       <c r="F89" s="3">
-        <v>-57500</v>
+        <v>2456000</v>
       </c>
       <c r="G89" s="3">
-        <v>2746700</v>
+        <v>-55000</v>
       </c>
       <c r="H89" s="3">
-        <v>81000</v>
+        <v>2625500</v>
       </c>
       <c r="I89" s="3">
-        <v>2953300</v>
+        <v>77400</v>
       </c>
       <c r="J89" s="3">
+        <v>2822900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-315800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3107,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-597500</v>
+        <v>-686700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1225500</v>
+        <v>-571100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1204300</v>
+        <v>-1171400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1001300</v>
+        <v>-575600</v>
       </c>
       <c r="H91" s="3">
-        <v>-478900</v>
+        <v>-957100</v>
       </c>
       <c r="I91" s="3">
-        <v>-638600</v>
+        <v>-457800</v>
       </c>
       <c r="J91" s="3">
+        <v>-610400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-396700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3169,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3201,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1550600</v>
+        <v>-304100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3151700</v>
+        <v>-1482100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1150300</v>
+        <v>-3012500</v>
       </c>
       <c r="G94" s="3">
-        <v>-862800</v>
+        <v>-1099600</v>
       </c>
       <c r="H94" s="3">
-        <v>-466000</v>
+        <v>-824700</v>
       </c>
       <c r="I94" s="3">
-        <v>-8877500</v>
+        <v>-445400</v>
       </c>
       <c r="J94" s="3">
+        <v>-8485600</v>
+      </c>
+      <c r="K94" s="3">
         <v>301700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3249,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-420200</v>
+        <v>-182900</v>
       </c>
       <c r="E96" s="3">
-        <v>-550500</v>
+        <v>-401700</v>
       </c>
       <c r="F96" s="3">
-        <v>-436700</v>
+        <v>-526200</v>
       </c>
       <c r="G96" s="3">
-        <v>-413200</v>
+        <v>-417400</v>
       </c>
       <c r="H96" s="3">
-        <v>-272300</v>
+        <v>-394900</v>
       </c>
       <c r="I96" s="3">
-        <v>-169000</v>
+        <v>-260300</v>
       </c>
       <c r="J96" s="3">
+        <v>-161600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-275800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3311,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3343,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3375,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1569400</v>
+        <v>-1626900</v>
       </c>
       <c r="E100" s="3">
-        <v>402600</v>
+        <v>1500100</v>
       </c>
       <c r="F100" s="3">
-        <v>707800</v>
+        <v>384800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2033000</v>
+        <v>676600</v>
       </c>
       <c r="H100" s="3">
-        <v>-899100</v>
+        <v>-1943300</v>
       </c>
       <c r="I100" s="3">
-        <v>2759600</v>
+        <v>-859400</v>
       </c>
       <c r="J100" s="3">
+        <v>2637800</v>
+      </c>
+      <c r="K100" s="3">
         <v>2125800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9400</v>
+        <v>10100</v>
       </c>
       <c r="E101" s="3">
-        <v>-189000</v>
+        <v>9000</v>
       </c>
       <c r="F101" s="3">
-        <v>-109200</v>
+        <v>-180600</v>
       </c>
       <c r="G101" s="3">
-        <v>68100</v>
+        <v>-104300</v>
       </c>
       <c r="H101" s="3">
-        <v>-35200</v>
+        <v>65100</v>
       </c>
       <c r="I101" s="3">
-        <v>-29300</v>
+        <v>-33700</v>
       </c>
       <c r="J101" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="K101" s="3">
         <v>170200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-336900</v>
+        <v>558800</v>
       </c>
       <c r="E102" s="3">
-        <v>-368600</v>
+        <v>-322000</v>
       </c>
       <c r="F102" s="3">
-        <v>-609200</v>
+        <v>-352300</v>
       </c>
       <c r="G102" s="3">
-        <v>-81000</v>
+        <v>-582300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1319400</v>
+        <v>-77400</v>
       </c>
       <c r="I102" s="3">
-        <v>-3193900</v>
+        <v>-1261100</v>
       </c>
       <c r="J102" s="3">
+        <v>-3052900</v>
+      </c>
+      <c r="K102" s="3">
         <v>2281900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2522500</v>
       </c>
     </row>

--- a/Financials/Quarterly/CRH_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CRH_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A94386-949D-4E75-B1DD-C5711B6BEB53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CRH" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>CRH</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,168 +654,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16657100</v>
+        <v>9424100</v>
       </c>
       <c r="E8" s="3">
-        <v>13401000</v>
+        <v>14512300</v>
       </c>
       <c r="F8" s="3">
-        <v>28296600</v>
+        <v>16300900</v>
       </c>
       <c r="G8" s="3">
-        <v>13295600</v>
+        <v>13114500</v>
       </c>
       <c r="H8" s="3">
-        <v>27813000</v>
+        <v>27691600</v>
       </c>
       <c r="I8" s="3">
+        <v>13011300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>27218300</v>
+      </c>
+      <c r="K8" s="3">
         <v>14241400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16005200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10998600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12428300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>11125700</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>9240700</v>
+        <v>9955600</v>
       </c>
       <c r="F9" s="3">
-        <v>18965000</v>
+        <v>10848200</v>
       </c>
       <c r="G9" s="3">
-        <v>9076900</v>
+        <v>9043100</v>
       </c>
       <c r="H9" s="3">
-        <v>18586900</v>
+        <v>18559500</v>
       </c>
       <c r="I9" s="3">
+        <v>8882800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18189500</v>
+      </c>
+      <c r="K9" s="3">
         <v>9780400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10894500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7845700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8641600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>5531400</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>4160300</v>
+        <v>4556700</v>
       </c>
       <c r="F10" s="3">
-        <v>9331600</v>
+        <v>5452700</v>
       </c>
       <c r="G10" s="3">
-        <v>4218700</v>
+        <v>4071400</v>
       </c>
       <c r="H10" s="3">
-        <v>9226100</v>
+        <v>9132100</v>
       </c>
       <c r="I10" s="3">
+        <v>4128500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9028900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4461000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5110700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3152900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3786700</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +854,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +888,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,28 +926,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>9000</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>13500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>48300</v>
       </c>
       <c r="G14" s="3">
-        <v>5600</v>
+        <v>13200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>5500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -959,8 +964,14 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -991,8 +1002,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1002,72 +1019,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>14878700</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>12736800</v>
+        <v>13687700</v>
       </c>
       <c r="F17" s="3">
-        <v>25946000</v>
+        <v>14560600</v>
       </c>
       <c r="G17" s="3">
-        <v>12614500</v>
+        <v>12464500</v>
       </c>
       <c r="H17" s="3">
-        <v>25672300</v>
+        <v>25391300</v>
       </c>
       <c r="I17" s="3">
+        <v>12344800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25123300</v>
+      </c>
+      <c r="K17" s="3">
         <v>13581700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14784500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10776700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11552600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1778400</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>664200</v>
+        <v>824600</v>
       </c>
       <c r="F18" s="3">
-        <v>2350600</v>
+        <v>1740300</v>
       </c>
       <c r="G18" s="3">
-        <v>681000</v>
+        <v>650000</v>
       </c>
       <c r="H18" s="3">
-        <v>2140800</v>
+        <v>2300300</v>
       </c>
       <c r="I18" s="3">
+        <v>666500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2095000</v>
+      </c>
+      <c r="K18" s="3">
         <v>659700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1220700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>221900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>875700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,72 +1111,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-246800</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-106600</v>
+        <v>-48300</v>
       </c>
       <c r="F20" s="3">
-        <v>-255800</v>
+        <v>-241600</v>
       </c>
       <c r="G20" s="3">
-        <v>-148100</v>
+        <v>-104300</v>
       </c>
       <c r="H20" s="3">
-        <v>-323100</v>
+        <v>-250300</v>
       </c>
       <c r="I20" s="3">
+        <v>-144900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-316200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-203100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-132400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-147900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2220400</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>1138800</v>
+        <v>1642600</v>
       </c>
       <c r="F21" s="3">
-        <v>3297500</v>
+        <v>2172900</v>
       </c>
       <c r="G21" s="3">
-        <v>1125400</v>
+        <v>1114500</v>
       </c>
       <c r="H21" s="3">
-        <v>3029400</v>
+        <v>3227000</v>
       </c>
       <c r="I21" s="3">
+        <v>1101300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2964600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1053500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1685200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>503600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1221900</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1176,72 +1221,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1531500</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>557600</v>
+        <v>776300</v>
       </c>
       <c r="F23" s="3">
-        <v>2094800</v>
+        <v>1498800</v>
       </c>
       <c r="G23" s="3">
-        <v>532900</v>
+        <v>545700</v>
       </c>
       <c r="H23" s="3">
-        <v>1817600</v>
+        <v>2050000</v>
       </c>
       <c r="I23" s="3">
+        <v>521600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1778800</v>
+      </c>
+      <c r="K23" s="3">
         <v>456600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1088300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>74000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>821700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>344500</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>133500</v>
+        <v>166900</v>
       </c>
       <c r="F24" s="3">
-        <v>555400</v>
+        <v>337100</v>
       </c>
       <c r="G24" s="3">
-        <v>144700</v>
+        <v>130700</v>
       </c>
       <c r="H24" s="3">
-        <v>483600</v>
+        <v>543500</v>
       </c>
       <c r="I24" s="3">
+        <v>141600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>473200</v>
+      </c>
+      <c r="K24" s="3">
         <v>127900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>323100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>18800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>190200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,72 +1335,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1187100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>424100</v>
+        <v>609400</v>
       </c>
       <c r="F26" s="3">
-        <v>1539400</v>
+        <v>1161700</v>
       </c>
       <c r="G26" s="3">
-        <v>388200</v>
+        <v>415000</v>
       </c>
       <c r="H26" s="3">
-        <v>1334000</v>
+        <v>1506500</v>
       </c>
       <c r="I26" s="3">
+        <v>379900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1305500</v>
+      </c>
+      <c r="K26" s="3">
         <v>328700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>765200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>55200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>631500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1182600</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>424100</v>
+        <v>601700</v>
       </c>
       <c r="F27" s="3">
-        <v>1512400</v>
+        <v>1157300</v>
       </c>
       <c r="G27" s="3">
-        <v>378100</v>
+        <v>415000</v>
       </c>
       <c r="H27" s="3">
-        <v>1303800</v>
+        <v>1480100</v>
       </c>
       <c r="I27" s="3">
+        <v>370000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1275900</v>
+      </c>
+      <c r="K27" s="3">
         <v>313000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>760700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>54000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,31 +1449,37 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>2200</v>
       </c>
-      <c r="E29" s="3">
-        <v>1215100</v>
-      </c>
-      <c r="F29" s="3">
-        <v>613700</v>
-      </c>
       <c r="G29" s="3">
-        <v>29200</v>
+        <v>1189100</v>
       </c>
       <c r="H29" s="3">
-        <v>90900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>600600</v>
+      </c>
+      <c r="I29" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>88900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1400,8 +1487,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,8 +1525,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,72 +1563,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>246800</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>106600</v>
+        <v>48300</v>
       </c>
       <c r="F32" s="3">
-        <v>255800</v>
+        <v>241600</v>
       </c>
       <c r="G32" s="3">
-        <v>148100</v>
+        <v>104300</v>
       </c>
       <c r="H32" s="3">
-        <v>323100</v>
+        <v>250300</v>
       </c>
       <c r="I32" s="3">
+        <v>144900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K32" s="3">
         <v>203100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>132400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>147900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>1184800</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>1639200</v>
+        <v>601700</v>
       </c>
       <c r="F33" s="3">
-        <v>2126200</v>
+        <v>1159500</v>
       </c>
       <c r="G33" s="3">
-        <v>407300</v>
+        <v>1604200</v>
       </c>
       <c r="H33" s="3">
-        <v>1394600</v>
+        <v>2080700</v>
       </c>
       <c r="I33" s="3">
+        <v>398600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1364800</v>
+      </c>
+      <c r="K33" s="3">
         <v>313000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>760700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>54000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,77 +1677,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>1184800</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>1639200</v>
+        <v>601700</v>
       </c>
       <c r="F35" s="3">
-        <v>2126200</v>
+        <v>1159500</v>
       </c>
       <c r="G35" s="3">
-        <v>407300</v>
+        <v>1604200</v>
       </c>
       <c r="H35" s="3">
-        <v>1394600</v>
+        <v>2080700</v>
       </c>
       <c r="I35" s="3">
+        <v>398600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1364800</v>
+      </c>
+      <c r="K35" s="3">
         <v>313000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>760700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>54000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1778,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1657,40 +1794,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>2632200</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>2073400</v>
+        <v>1536100</v>
       </c>
       <c r="F41" s="3">
-        <v>2373000</v>
+        <v>2575900</v>
       </c>
       <c r="G41" s="3">
-        <v>2165400</v>
+        <v>2029100</v>
       </c>
       <c r="H41" s="3">
-        <v>2747800</v>
+        <v>2322300</v>
       </c>
       <c r="I41" s="3">
+        <v>2119100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2689000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1564100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2825200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6149600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3829000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1721,232 +1866,280 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>4587800</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>5712100</v>
+        <v>5796300</v>
       </c>
       <c r="F43" s="3">
-        <v>4258000</v>
+        <v>4489700</v>
       </c>
       <c r="G43" s="3">
-        <v>5466300</v>
+        <v>5589900</v>
       </c>
       <c r="H43" s="3">
-        <v>4468900</v>
+        <v>4166900</v>
       </c>
       <c r="I43" s="3">
+        <v>5349500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4373300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5548200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4467800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4211600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3121200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>3434400</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>3535400</v>
+        <v>3544300</v>
       </c>
       <c r="F44" s="3">
-        <v>3046200</v>
+        <v>3361000</v>
       </c>
       <c r="G44" s="3">
-        <v>3495000</v>
+        <v>3459800</v>
       </c>
       <c r="H44" s="3">
-        <v>3297500</v>
+        <v>2981100</v>
       </c>
       <c r="I44" s="3">
+        <v>3420300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3227000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3362600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3223500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2978000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2652800</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>16800</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>34800</v>
+        <v>9900</v>
       </c>
       <c r="F45" s="3">
-        <v>1285800</v>
+        <v>16500</v>
       </c>
       <c r="G45" s="3">
-        <v>67300</v>
+        <v>34000</v>
       </c>
       <c r="H45" s="3">
+        <v>1258300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>65900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>29200</v>
+      </c>
+      <c r="L45" s="3">
+        <v>26900</v>
+      </c>
+      <c r="M45" s="3">
         <v>25800</v>
       </c>
-      <c r="I45" s="3">
-        <v>29200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>26900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>25800</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>640900</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>10671200</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>11355700</v>
+        <v>10886700</v>
       </c>
       <c r="F46" s="3">
-        <v>10963000</v>
+        <v>10443100</v>
       </c>
       <c r="G46" s="3">
-        <v>11194100</v>
+        <v>11112900</v>
       </c>
       <c r="H46" s="3">
-        <v>10540000</v>
+        <v>10728600</v>
       </c>
       <c r="I46" s="3">
+        <v>10954700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10314600</v>
+      </c>
+      <c r="K46" s="3">
         <v>10504100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10543300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>13365000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10243800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>1533800</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>1457500</v>
+        <v>1519600</v>
       </c>
       <c r="F47" s="3">
-        <v>1603300</v>
+        <v>1501000</v>
       </c>
       <c r="G47" s="3">
-        <v>1662800</v>
+        <v>1426300</v>
       </c>
       <c r="H47" s="3">
-        <v>1724500</v>
+        <v>1569000</v>
       </c>
       <c r="I47" s="3">
+        <v>1627200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1687600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1688600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1676300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1814700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1686800</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>17683700</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>17510900</v>
+        <v>19593800</v>
       </c>
       <c r="F48" s="3">
-        <v>14691300</v>
+        <v>17305600</v>
       </c>
       <c r="G48" s="3">
-        <v>13922800</v>
+        <v>17136500</v>
       </c>
       <c r="H48" s="3">
-        <v>14238100</v>
+        <v>14377200</v>
       </c>
       <c r="I48" s="3">
+        <v>13625100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13933600</v>
+      </c>
+      <c r="K48" s="3">
         <v>14146000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>14655400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9181500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8712000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>9461700</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>9665900</v>
+        <v>9360500</v>
       </c>
       <c r="F49" s="3">
-        <v>8094000</v>
+        <v>9259400</v>
       </c>
       <c r="G49" s="3">
-        <v>8468800</v>
+        <v>9459300</v>
       </c>
       <c r="H49" s="3">
-        <v>8707800</v>
+        <v>7921000</v>
       </c>
       <c r="I49" s="3">
+        <v>8287700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8521600</v>
+      </c>
+      <c r="K49" s="3">
         <v>8629200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8774000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5177700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4898300</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2170,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,40 +2208,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>113300</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>127900</v>
+        <v>160300</v>
       </c>
       <c r="F52" s="3">
-        <v>140200</v>
+        <v>110900</v>
       </c>
       <c r="G52" s="3">
-        <v>203100</v>
+        <v>125200</v>
       </c>
       <c r="H52" s="3">
-        <v>237900</v>
+        <v>137300</v>
       </c>
       <c r="I52" s="3">
+        <v>198700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>232800</v>
+      </c>
+      <c r="K52" s="3">
         <v>362400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>262500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>253500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>302800</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2073,40 +2284,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>39463800</v>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E54" s="3">
-        <v>40117900</v>
+        <v>41520900</v>
       </c>
       <c r="F54" s="3">
-        <v>35491900</v>
+        <v>38620000</v>
       </c>
       <c r="G54" s="3">
-        <v>35451500</v>
+        <v>39260100</v>
       </c>
       <c r="H54" s="3">
-        <v>35448200</v>
+        <v>34733000</v>
       </c>
       <c r="I54" s="3">
+        <v>34693500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>34690200</v>
+      </c>
+      <c r="K54" s="3">
         <v>35330300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>35911500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29792500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>25843800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2119,8 +2342,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,200 +2358,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>5171300</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>5783900</v>
+        <v>5570200</v>
       </c>
       <c r="F57" s="3">
-        <v>5087100</v>
+        <v>5060700</v>
       </c>
       <c r="G57" s="3">
-        <v>5610000</v>
+        <v>5660200</v>
       </c>
       <c r="H57" s="3">
-        <v>5402400</v>
+        <v>4978300</v>
       </c>
       <c r="I57" s="3">
+        <v>5490000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5286900</v>
+      </c>
+      <c r="K57" s="3">
         <v>5880300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5341800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4145900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3397000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>693400</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>1521400</v>
+        <v>1516300</v>
       </c>
       <c r="F58" s="3">
-        <v>354500</v>
+        <v>678600</v>
       </c>
       <c r="G58" s="3">
-        <v>469000</v>
+        <v>1488900</v>
       </c>
       <c r="H58" s="3">
-        <v>308500</v>
+        <v>347000</v>
       </c>
       <c r="I58" s="3">
+        <v>459000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>302000</v>
+      </c>
+      <c r="K58" s="3">
         <v>720300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>848200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>412000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>524700</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
+        <v>969500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>935500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1080400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1296700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>890500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>887200</v>
+      </c>
+      <c r="K59" s="3">
+        <v>880800</v>
+      </c>
+      <c r="L59" s="3">
         <v>955900</v>
       </c>
-      <c r="E59" s="3">
-        <v>1104000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1325100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>909900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>906600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>880800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>955900</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>322800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>617400</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>6820600</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>8409300</v>
+        <v>8056000</v>
       </c>
       <c r="F60" s="3">
-        <v>6766700</v>
+        <v>6674700</v>
       </c>
       <c r="G60" s="3">
-        <v>6988900</v>
+        <v>8229500</v>
       </c>
       <c r="H60" s="3">
-        <v>6617500</v>
+        <v>6622000</v>
       </c>
       <c r="I60" s="3">
+        <v>6839400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6476000</v>
+      </c>
+      <c r="K60" s="3">
         <v>7481400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7146000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4880700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4539100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9759100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>9600900</v>
+        <v>11318200</v>
       </c>
       <c r="F61" s="3">
-        <v>8594400</v>
+        <v>9550400</v>
       </c>
       <c r="G61" s="3">
-        <v>8953500</v>
+        <v>9395600</v>
       </c>
       <c r="H61" s="3">
-        <v>8431800</v>
+        <v>8410700</v>
       </c>
       <c r="I61" s="3">
+        <v>8762000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>8251500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8908600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9497600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7241200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6360900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>4310700</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>4188400</v>
+        <v>4383200</v>
       </c>
       <c r="F62" s="3">
-        <v>3326700</v>
+        <v>4218500</v>
       </c>
       <c r="G62" s="3">
-        <v>3895500</v>
+        <v>4098800</v>
       </c>
       <c r="H62" s="3">
-        <v>4194000</v>
+        <v>3255600</v>
       </c>
       <c r="I62" s="3">
+        <v>3812300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4104300</v>
+      </c>
+      <c r="K62" s="3">
         <v>4229900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4071700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2946300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2973300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2357,8 +2620,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2389,8 +2658,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,40 +2696,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>21479400</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>22752800</v>
+        <v>24354700</v>
       </c>
       <c r="F66" s="3">
-        <v>19233200</v>
+        <v>21020100</v>
       </c>
       <c r="G66" s="3">
-        <v>20405600</v>
+        <v>22266300</v>
       </c>
       <c r="H66" s="3">
-        <v>19858100</v>
+        <v>18821900</v>
       </c>
       <c r="I66" s="3">
+        <v>19969300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>19433500</v>
+      </c>
+      <c r="K66" s="3">
         <v>21220200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21308800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15094000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13897900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2467,8 +2754,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +2788,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2531,13 +2826,19 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>1100</v>
@@ -2558,13 +2859,19 @@
         <v>1100</v>
       </c>
       <c r="K70" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M70" s="3">
         <v>1200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2595,40 +2902,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>11341100</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>10239300</v>
+        <v>10970100</v>
       </c>
       <c r="F72" s="3">
-        <v>9186900</v>
+        <v>11098600</v>
       </c>
       <c r="G72" s="3">
-        <v>7597000</v>
+        <v>10020300</v>
       </c>
       <c r="H72" s="3">
-        <v>7582400</v>
+        <v>8990400</v>
       </c>
       <c r="I72" s="3">
+        <v>7434600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>7420300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6436900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6776800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6156600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6344400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2659,8 +2978,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2691,8 +3016,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2723,40 +3054,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>17983300</v>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E76" s="3">
-        <v>17363900</v>
+        <v>17165000</v>
       </c>
       <c r="F76" s="3">
-        <v>16257600</v>
+        <v>17598700</v>
       </c>
       <c r="G76" s="3">
-        <v>15044800</v>
+        <v>16992600</v>
       </c>
       <c r="H76" s="3">
-        <v>15588900</v>
+        <v>15910000</v>
       </c>
       <c r="I76" s="3">
+        <v>14723100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>15255600</v>
+      </c>
+      <c r="K76" s="3">
         <v>14109000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14601600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14697300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11944700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2787,77 +3130,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>1184800</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>1639200</v>
+        <v>601700</v>
       </c>
       <c r="F81" s="3">
-        <v>2126200</v>
+        <v>1159500</v>
       </c>
       <c r="G81" s="3">
-        <v>407300</v>
+        <v>1604200</v>
       </c>
       <c r="H81" s="3">
-        <v>1394600</v>
+        <v>2080700</v>
       </c>
       <c r="I81" s="3">
+        <v>398600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1364800</v>
+      </c>
+      <c r="K81" s="3">
         <v>313000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>760700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>54000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2870,40 +3231,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>688900</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>581200</v>
+        <v>866300</v>
       </c>
       <c r="F83" s="3">
-        <v>1202800</v>
+        <v>674200</v>
       </c>
       <c r="G83" s="3">
-        <v>592400</v>
+        <v>568800</v>
       </c>
       <c r="H83" s="3">
-        <v>1211700</v>
+        <v>1177100</v>
       </c>
       <c r="I83" s="3">
+        <v>579700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1185800</v>
+      </c>
+      <c r="K83" s="3">
         <v>596900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>596900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>429600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>400300</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2934,8 +3303,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2966,8 +3341,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2998,8 +3379,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3030,8 +3417,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3062,40 +3455,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>2479600</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>-348900</v>
+        <v>296500</v>
       </c>
       <c r="F89" s="3">
-        <v>2456000</v>
+        <v>2426600</v>
       </c>
       <c r="G89" s="3">
-        <v>-55000</v>
+        <v>-341500</v>
       </c>
       <c r="H89" s="3">
-        <v>2625500</v>
+        <v>2403500</v>
       </c>
       <c r="I89" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2569300</v>
+      </c>
+      <c r="K89" s="3">
         <v>77400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2822900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-315800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1747800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3108,40 +3513,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-686700</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-571100</v>
+        <v>-697200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1171400</v>
+        <v>-672000</v>
       </c>
       <c r="G91" s="3">
-        <v>-575600</v>
+        <v>-558900</v>
       </c>
       <c r="H91" s="3">
-        <v>-957100</v>
+        <v>-1146300</v>
       </c>
       <c r="I91" s="3">
+        <v>-563300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-936600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-457800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-610400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-396700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-260600</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3585,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3204,40 +3623,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-304100</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-1482100</v>
+        <v>-621500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3012500</v>
+        <v>-297600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1099600</v>
+        <v>-1450500</v>
       </c>
       <c r="H94" s="3">
-        <v>-824700</v>
+        <v>-2948100</v>
       </c>
       <c r="I94" s="3">
+        <v>-1076000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-807000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-445400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8485600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>301700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3250,40 +3681,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-182900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-401700</v>
+        <v>-466700</v>
       </c>
       <c r="F96" s="3">
-        <v>-526200</v>
+        <v>-179000</v>
       </c>
       <c r="G96" s="3">
-        <v>-417400</v>
+        <v>-393100</v>
       </c>
       <c r="H96" s="3">
-        <v>-394900</v>
+        <v>-515000</v>
       </c>
       <c r="I96" s="3">
+        <v>-408500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-386500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-260300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-161600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-275800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-135000</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3314,8 +3753,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3346,8 +3791,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3378,100 +3829,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-1626900</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>1500100</v>
+        <v>-721400</v>
       </c>
       <c r="F100" s="3">
-        <v>384800</v>
+        <v>-1592100</v>
       </c>
       <c r="G100" s="3">
-        <v>676600</v>
+        <v>1468000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1943300</v>
+        <v>376600</v>
       </c>
       <c r="I100" s="3">
+        <v>662100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1901700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-859400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2637800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2125800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>610400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>10100</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>9000</v>
+        <v>6600</v>
       </c>
       <c r="F101" s="3">
-        <v>-180600</v>
+        <v>9900</v>
       </c>
       <c r="G101" s="3">
-        <v>-104300</v>
+        <v>8800</v>
       </c>
       <c r="H101" s="3">
-        <v>65100</v>
+        <v>-176800</v>
       </c>
       <c r="I101" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-33700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-28000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>170200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>132600</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>558800</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>-322000</v>
+        <v>-1039800</v>
       </c>
       <c r="F102" s="3">
-        <v>-352300</v>
+        <v>546800</v>
       </c>
       <c r="G102" s="3">
-        <v>-582300</v>
+        <v>-315100</v>
       </c>
       <c r="H102" s="3">
-        <v>-77400</v>
+        <v>-344800</v>
       </c>
       <c r="I102" s="3">
+        <v>-569900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1261100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3052900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2281900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2522500</v>
       </c>
     </row>
